--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H100_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4894259818731118</v>
+        <v>0.4652567975830816</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1602392512785647</v>
+        <v>0.1387398459224651</v>
       </c>
       <c r="J2" t="n">
-        <v>2063.57642797243</v>
+        <v>1867.569829458178</v>
       </c>
       <c r="K2" t="n">
-        <v>5308111.877092636</v>
+        <v>5057528.672800175</v>
       </c>
       <c r="L2" t="n">
-        <v>2303.934000159865</v>
+        <v>2248.894989278107</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007683458924963915</v>
+        <v>0.05452833791255396</v>
       </c>
     </row>
   </sheetData>
